--- a/Code/Results/Cases/Case_5_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9993538939971676</v>
+        <v>1.029291292965256</v>
       </c>
       <c r="D2">
-        <v>1.022088537160006</v>
+        <v>1.037799921630124</v>
       </c>
       <c r="E2">
-        <v>1.005891417248849</v>
+        <v>1.029145161006346</v>
       </c>
       <c r="F2">
-        <v>1.026375304229483</v>
+        <v>1.046644144546457</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.048823755926696</v>
+        <v>1.035904970832552</v>
       </c>
       <c r="J2">
-        <v>1.02155394717147</v>
+        <v>1.034438881527789</v>
       </c>
       <c r="K2">
-        <v>1.033248487096384</v>
+        <v>1.040589773744273</v>
       </c>
       <c r="L2">
-        <v>1.017269280950393</v>
+        <v>1.03195992276475</v>
       </c>
       <c r="M2">
-        <v>1.03747902268614</v>
+        <v>1.049409003504707</v>
       </c>
       <c r="N2">
-        <v>1.005712725503999</v>
+        <v>1.005712725503983</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.003862633475443</v>
+        <v>1.030242965046321</v>
       </c>
       <c r="D3">
-        <v>1.025451864103879</v>
+        <v>1.038519694917004</v>
       </c>
       <c r="E3">
-        <v>1.00948578329766</v>
+        <v>1.029953080002305</v>
       </c>
       <c r="F3">
-        <v>1.030289376727143</v>
+        <v>1.047504342387772</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.050125441105284</v>
+        <v>1.036093844866152</v>
       </c>
       <c r="J3">
-        <v>1.024248550214892</v>
+        <v>1.035031512372653</v>
       </c>
       <c r="K3">
-        <v>1.035769120145102</v>
+        <v>1.041119667576619</v>
       </c>
       <c r="L3">
-        <v>1.019998713600573</v>
+        <v>1.032575926150954</v>
       </c>
       <c r="M3">
-        <v>1.040548830092036</v>
+        <v>1.050080759443252</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.006720503074079</v>
+        <v>1.030859121072944</v>
       </c>
       <c r="D4">
-        <v>1.027584488479377</v>
+        <v>1.038985409171182</v>
       </c>
       <c r="E4">
-        <v>1.011770219314374</v>
+        <v>1.030476558593249</v>
       </c>
       <c r="F4">
-        <v>1.032773123188377</v>
+        <v>1.04806123570434</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050936614031375</v>
+        <v>1.036214393903319</v>
       </c>
       <c r="J4">
-        <v>1.025953846110556</v>
+        <v>1.035414743641325</v>
       </c>
       <c r="K4">
-        <v>1.037361012864805</v>
+        <v>1.041461847445733</v>
       </c>
       <c r="L4">
-        <v>1.021728633783322</v>
+        <v>1.032974572230354</v>
       </c>
       <c r="M4">
-        <v>1.042491463584146</v>
+        <v>1.050515076613365</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007908186279694</v>
+        <v>1.031118238422998</v>
       </c>
       <c r="D5">
-        <v>1.028470898474812</v>
+        <v>1.039181187475559</v>
       </c>
       <c r="E5">
-        <v>1.012721022285712</v>
+        <v>1.03069679544592</v>
       </c>
       <c r="F5">
-        <v>1.033805945931914</v>
+        <v>1.048295421041034</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051270335469819</v>
+        <v>1.036264673372987</v>
       </c>
       <c r="J5">
-        <v>1.026661858886265</v>
+        <v>1.035575795480897</v>
       </c>
       <c r="K5">
-        <v>1.038021131752284</v>
+        <v>1.041605531911813</v>
       </c>
       <c r="L5">
-        <v>1.022447490133966</v>
+        <v>1.033142174117875</v>
       </c>
       <c r="M5">
-        <v>1.043297976304015</v>
+        <v>1.050697577546321</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.008106810391914</v>
+        <v>1.03116175034369</v>
       </c>
       <c r="D6">
-        <v>1.028619144428874</v>
+        <v>1.039214059004586</v>
       </c>
       <c r="E6">
-        <v>1.012880114103679</v>
+        <v>1.030733783903807</v>
       </c>
       <c r="F6">
-        <v>1.033978706535744</v>
+        <v>1.048334745697068</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.051325945185632</v>
+        <v>1.036273092078408</v>
       </c>
       <c r="J6">
-        <v>1.02678022352732</v>
+        <v>1.035602833328644</v>
       </c>
       <c r="K6">
-        <v>1.038131441387042</v>
+        <v>1.041629647284611</v>
       </c>
       <c r="L6">
-        <v>1.022567704055796</v>
+        <v>1.033170315830864</v>
       </c>
       <c r="M6">
-        <v>1.043432805402568</v>
+        <v>1.050728215174883</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.006736426398745</v>
+        <v>1.030862583077466</v>
       </c>
       <c r="D7">
-        <v>1.027596372196608</v>
+        <v>1.038988025203619</v>
       </c>
       <c r="E7">
-        <v>1.011782961186196</v>
+        <v>1.030479500756524</v>
       </c>
       <c r="F7">
-        <v>1.032786967917292</v>
+        <v>1.048064364637397</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050941101705835</v>
+        <v>1.036215067310116</v>
       </c>
       <c r="J7">
-        <v>1.025963341204633</v>
+        <v>1.035416895855358</v>
       </c>
       <c r="K7">
-        <v>1.037369868885067</v>
+        <v>1.041463768025947</v>
       </c>
       <c r="L7">
-        <v>1.021738271848818</v>
+        <v>1.032976811692795</v>
       </c>
       <c r="M7">
-        <v>1.042502279821494</v>
+        <v>1.050517515539342</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.000890290424088</v>
+        <v>1.029612839767908</v>
       </c>
       <c r="D8">
-        <v>1.023234423591591</v>
+        <v>1.038043177137642</v>
       </c>
       <c r="E8">
-        <v>1.007114916005631</v>
+        <v>1.029418055053767</v>
       </c>
       <c r="F8">
-        <v>1.027708439443982</v>
+        <v>1.046934791937154</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.049270200236238</v>
+        <v>1.035969146033461</v>
       </c>
       <c r="J8">
-        <v>1.022472698732936</v>
+        <v>1.034639213093012</v>
       </c>
       <c r="K8">
-        <v>1.034108604943394</v>
+        <v>1.040768997467197</v>
       </c>
       <c r="L8">
-        <v>1.018199366075444</v>
+        <v>1.032168092858606</v>
       </c>
       <c r="M8">
-        <v>1.03852572013119</v>
+        <v>1.049636099057112</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9901084991241801</v>
+        <v>1.027413436026834</v>
       </c>
       <c r="D9">
-        <v>1.015198906279587</v>
+        <v>1.036378089972078</v>
       </c>
       <c r="E9">
-        <v>0.9985569242800415</v>
+        <v>1.027553080729906</v>
       </c>
       <c r="F9">
-        <v>1.018367320251081</v>
+        <v>1.044946611163418</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.046080442335021</v>
+        <v>1.035523080256346</v>
       </c>
       <c r="J9">
-        <v>1.016015453044042</v>
+        <v>1.033267038848751</v>
       </c>
       <c r="K9">
-        <v>1.02805011251544</v>
+        <v>1.039539434864779</v>
       </c>
       <c r="L9">
-        <v>1.011673457850745</v>
+        <v>1.030743461919756</v>
       </c>
       <c r="M9">
-        <v>1.031169267009108</v>
+        <v>1.048080277515426</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9825623689203884</v>
+        <v>1.025949107187538</v>
       </c>
       <c r="D10">
-        <v>1.009585245582046</v>
+        <v>1.035268020416693</v>
       </c>
       <c r="E10">
-        <v>0.9926051191929683</v>
+        <v>1.026313494415641</v>
       </c>
       <c r="F10">
-        <v>1.011850399804804</v>
+        <v>1.043622772483552</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.043778202199356</v>
+        <v>1.035217192025961</v>
       </c>
       <c r="J10">
-        <v>1.011485332888101</v>
+        <v>1.032351105894797</v>
       </c>
       <c r="K10">
-        <v>1.023783565574286</v>
+        <v>1.038716236308036</v>
       </c>
       <c r="L10">
-        <v>1.00710918656658</v>
+        <v>1.029794062519784</v>
       </c>
       <c r="M10">
-        <v>1.026008938016856</v>
+        <v>1.047041355059323</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9792012401248201</v>
+        <v>1.025315507986926</v>
       </c>
       <c r="D11">
-        <v>1.00708831822918</v>
+        <v>1.034787363058548</v>
       </c>
       <c r="E11">
-        <v>0.9899638986702219</v>
+        <v>1.025777641146091</v>
       </c>
       <c r="F11">
-        <v>1.008953589267943</v>
+        <v>1.04304993713103</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.042737021396281</v>
+        <v>1.035082728947823</v>
       </c>
       <c r="J11">
-        <v>1.00946562079444</v>
+        <v>1.031954236082492</v>
       </c>
       <c r="K11">
-        <v>1.021877785933546</v>
+        <v>1.038358967889967</v>
       </c>
       <c r="L11">
-        <v>1.005077595894333</v>
+        <v>1.029383059025344</v>
       </c>
       <c r="M11">
-        <v>1.023708606524283</v>
+        <v>1.046591100658197</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.9779379121472291</v>
+        <v>1.025080231705015</v>
       </c>
       <c r="D12">
-        <v>1.006150421819361</v>
+        <v>1.034608828424744</v>
       </c>
       <c r="E12">
-        <v>0.988972698640738</v>
+        <v>1.025578737278106</v>
       </c>
       <c r="F12">
-        <v>1.007865752712676</v>
+        <v>1.042837221437511</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.042343385649397</v>
+        <v>1.035032481826055</v>
       </c>
       <c r="J12">
-        <v>1.00870624400126</v>
+        <v>1.031806782113394</v>
       </c>
       <c r="K12">
-        <v>1.021160730506214</v>
+        <v>1.038226140638361</v>
       </c>
       <c r="L12">
-        <v>1.004314258284312</v>
+        <v>1.029230408958728</v>
       </c>
       <c r="M12">
-        <v>1.022843793063217</v>
+        <v>1.046423798131006</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.978209585852028</v>
+        <v>1.025130696054678</v>
       </c>
       <c r="D13">
-        <v>1.006352083737787</v>
+        <v>1.034647124555699</v>
       </c>
       <c r="E13">
-        <v>0.9891857815329613</v>
+        <v>1.025621396662376</v>
       </c>
       <c r="F13">
-        <v>1.008099642405063</v>
+        <v>1.042882846898679</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.042428137895369</v>
+        <v>1.035043273639479</v>
       </c>
       <c r="J13">
-        <v>1.008869554920757</v>
+        <v>1.031838413233403</v>
       </c>
       <c r="K13">
-        <v>1.021314962739473</v>
+        <v>1.03825463803215</v>
       </c>
       <c r="L13">
-        <v>1.004478398140495</v>
+        <v>1.02926315222446</v>
       </c>
       <c r="M13">
-        <v>1.023029775572801</v>
+        <v>1.046459687695901</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9790971208594057</v>
+        <v>1.025296058529548</v>
       </c>
       <c r="D14">
-        <v>1.007011007031156</v>
+        <v>1.034772605262605</v>
       </c>
       <c r="E14">
-        <v>0.9898821755524635</v>
+        <v>1.025761196910507</v>
       </c>
       <c r="F14">
-        <v>1.008863913181678</v>
+        <v>1.043032352735582</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.042704625441422</v>
+        <v>1.035078581652787</v>
       </c>
       <c r="J14">
-        <v>1.009403040048399</v>
+        <v>1.031942048278552</v>
       </c>
       <c r="K14">
-        <v>1.021818703258974</v>
+        <v>1.038347990827674</v>
       </c>
       <c r="L14">
-        <v>1.00501467844967</v>
+        <v>1.029370440612838</v>
       </c>
       <c r="M14">
-        <v>1.023637335112963</v>
+        <v>1.046577272555164</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9796419673802369</v>
+        <v>1.025397953197691</v>
       </c>
       <c r="D15">
-        <v>1.007415594779669</v>
+        <v>1.034849918494801</v>
       </c>
       <c r="E15">
-        <v>0.9903098883056148</v>
+        <v>1.02584735050405</v>
       </c>
       <c r="F15">
-        <v>1.009333219962422</v>
+        <v>1.043124476323743</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.042874057453379</v>
+        <v>1.035100296146547</v>
       </c>
       <c r="J15">
-        <v>1.009730509893529</v>
+        <v>1.032005896130103</v>
       </c>
       <c r="K15">
-        <v>1.022127847682093</v>
+        <v>1.038405492450363</v>
       </c>
       <c r="L15">
-        <v>1.005343930766298</v>
+        <v>1.029436546538351</v>
       </c>
       <c r="M15">
-        <v>1.024010284118752</v>
+        <v>1.04664971281919</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.982783397492048</v>
+        <v>1.025991166944755</v>
       </c>
       <c r="D16">
-        <v>1.009749523585505</v>
+        <v>1.035299920394223</v>
       </c>
       <c r="E16">
-        <v>0.9927790160589238</v>
+        <v>1.0263490762177</v>
       </c>
       <c r="F16">
-        <v>1.012041024611986</v>
+        <v>1.043660798135525</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.043846348578611</v>
+        <v>1.035226073574165</v>
       </c>
       <c r="J16">
-        <v>1.011618113474194</v>
+        <v>1.032377439337842</v>
       </c>
       <c r="K16">
-        <v>1.023908783316648</v>
+        <v>1.03873992989088</v>
       </c>
       <c r="L16">
-        <v>1.007242817983095</v>
+        <v>1.029821341507023</v>
       </c>
       <c r="M16">
-        <v>1.02616017605584</v>
+        <v>1.047071228761348</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9847283312208143</v>
+        <v>1.02636339929746</v>
       </c>
       <c r="D17">
-        <v>1.011195486619189</v>
+        <v>1.035582198383338</v>
       </c>
       <c r="E17">
-        <v>0.9943103370570231</v>
+        <v>1.026664036257729</v>
       </c>
       <c r="F17">
-        <v>1.013719102425471</v>
+        <v>1.043997325549994</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.044444217676073</v>
+        <v>1.035304432367971</v>
       </c>
       <c r="J17">
-        <v>1.01278629655697</v>
+        <v>1.032610428341025</v>
       </c>
       <c r="K17">
-        <v>1.025010025169967</v>
+        <v>1.038949495394438</v>
       </c>
       <c r="L17">
-        <v>1.008418867585612</v>
+        <v>1.030062738754388</v>
       </c>
       <c r="M17">
-        <v>1.027490787279136</v>
+        <v>1.047335529918548</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9858538030586979</v>
+        <v>1.026580560926408</v>
       </c>
       <c r="D18">
-        <v>1.012032541830846</v>
+        <v>1.035746847238372</v>
       </c>
       <c r="E18">
-        <v>0.9951973870624423</v>
+        <v>1.026847833462661</v>
       </c>
       <c r="F18">
-        <v>1.014690706795574</v>
+        <v>1.044193654364167</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.044788687783024</v>
+        <v>1.035349943606837</v>
       </c>
       <c r="J18">
-        <v>1.01346209893498</v>
+        <v>1.032746301273009</v>
       </c>
       <c r="K18">
-        <v>1.025646760667936</v>
+        <v>1.039071652411173</v>
       </c>
       <c r="L18">
-        <v>1.009099538020725</v>
+        <v>1.030203550562808</v>
       </c>
       <c r="M18">
-        <v>1.0282605877677</v>
+        <v>1.047489654203462</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9862360606791992</v>
+        <v>1.026654615002632</v>
       </c>
       <c r="D19">
-        <v>1.012316893040923</v>
+        <v>1.03580298834973</v>
       </c>
       <c r="E19">
-        <v>0.9954988210677785</v>
+        <v>1.026910518164935</v>
       </c>
       <c r="F19">
-        <v>1.015020796002488</v>
+        <v>1.044260603829215</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.04490542817278</v>
+        <v>1.035365428817244</v>
       </c>
       <c r="J19">
-        <v>1.013691596380731</v>
+        <v>1.032792626058943</v>
       </c>
       <c r="K19">
-        <v>1.02586293281033</v>
+        <v>1.039113291366192</v>
       </c>
       <c r="L19">
-        <v>1.009330742365798</v>
+        <v>1.030251565225936</v>
       </c>
       <c r="M19">
-        <v>1.028522011213561</v>
+        <v>1.047542200100742</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9845205921205717</v>
+        <v>1.026323457649319</v>
       </c>
       <c r="D20">
-        <v>1.011041008735794</v>
+        <v>1.035551912525446</v>
       </c>
       <c r="E20">
-        <v>0.9941466798498997</v>
+        <v>1.026630235085878</v>
       </c>
       <c r="F20">
-        <v>1.013539808275284</v>
+        <v>1.043961215395419</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.044380513964688</v>
+        <v>1.035296045284973</v>
       </c>
       <c r="J20">
-        <v>1.012661541654877</v>
+        <v>1.032585433468334</v>
       </c>
       <c r="K20">
-        <v>1.024892454401862</v>
+        <v>1.038927019162561</v>
       </c>
       <c r="L20">
-        <v>1.008293239655193</v>
+        <v>1.030036838188725</v>
       </c>
       <c r="M20">
-        <v>1.027348682558448</v>
+        <v>1.047307176838604</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9788361806398539</v>
+        <v>1.025247361444647</v>
       </c>
       <c r="D21">
-        <v>1.006817262418933</v>
+        <v>1.034735654230428</v>
       </c>
       <c r="E21">
-        <v>0.9896773888675138</v>
+        <v>1.025720025459954</v>
       </c>
       <c r="F21">
-        <v>1.00863918590949</v>
+        <v>1.042988325301336</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.042623399092371</v>
+        <v>1.03506819264187</v>
       </c>
       <c r="J21">
-        <v>1.009246198606772</v>
+        <v>1.031911531405764</v>
       </c>
       <c r="K21">
-        <v>1.021670620550464</v>
+        <v>1.03832050411155</v>
       </c>
       <c r="L21">
-        <v>1.004857001313779</v>
+        <v>1.029338846436341</v>
       </c>
       <c r="M21">
-        <v>1.023458714120765</v>
+        <v>1.046542648336026</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9751757841180533</v>
+        <v>1.024571186352319</v>
       </c>
       <c r="D22">
-        <v>1.004101037256929</v>
+        <v>1.03422245776822</v>
       </c>
       <c r="E22">
-        <v>0.9868084626363195</v>
+        <v>1.025148527438045</v>
       </c>
       <c r="F22">
-        <v>1.005489200367109</v>
+        <v>1.042376983522391</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.041478608619373</v>
+        <v>1.034923188300981</v>
       </c>
       <c r="J22">
-        <v>1.007045570775077</v>
+        <v>1.03148759811725</v>
       </c>
       <c r="K22">
-        <v>1.01959168723765</v>
+        <v>1.03793845953209</v>
       </c>
       <c r="L22">
-        <v>1.002645855592332</v>
+        <v>1.028900078200185</v>
       </c>
       <c r="M22">
-        <v>1.020952693832506</v>
+        <v>1.046061623981016</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9771246970815674</v>
+        <v>1.024929600486484</v>
       </c>
       <c r="D23">
-        <v>1.005546873093017</v>
+        <v>1.034494510797103</v>
       </c>
       <c r="E23">
-        <v>0.9883350978931075</v>
+        <v>1.025451414325973</v>
       </c>
       <c r="F23">
-        <v>1.007165787547369</v>
+        <v>1.042701033442464</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.042089361932961</v>
+        <v>1.035000222972269</v>
       </c>
       <c r="J23">
-        <v>1.00821736606986</v>
+        <v>1.031712354126014</v>
       </c>
       <c r="K23">
-        <v>1.020698956252714</v>
+        <v>1.038141055022722</v>
       </c>
       <c r="L23">
-        <v>1.003822973159607</v>
+        <v>1.029132668974384</v>
       </c>
       <c r="M23">
-        <v>1.022287058719907</v>
+        <v>1.046316655435953</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9846144881558728</v>
+        <v>1.026341505422461</v>
       </c>
       <c r="D24">
-        <v>1.011110830231985</v>
+        <v>1.035565597398401</v>
       </c>
       <c r="E24">
-        <v>0.994220648446006</v>
+        <v>1.026645508113827</v>
       </c>
       <c r="F24">
-        <v>1.013620845761974</v>
+        <v>1.043977531902436</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.04440931206708</v>
+        <v>1.035299835646607</v>
       </c>
       <c r="J24">
-        <v>1.012717930234731</v>
+        <v>1.032596727654617</v>
       </c>
       <c r="K24">
-        <v>1.024945596848588</v>
+        <v>1.038937175448437</v>
       </c>
       <c r="L24">
-        <v>1.00835002185588</v>
+        <v>1.030048541512124</v>
       </c>
       <c r="M24">
-        <v>1.027412913069228</v>
+        <v>1.047319988492837</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9929562574664479</v>
+        <v>1.027981696671209</v>
       </c>
       <c r="D25">
-        <v>1.017319829743483</v>
+        <v>1.036808563171526</v>
       </c>
       <c r="E25">
-        <v>1.000811035347708</v>
+        <v>1.028034569721284</v>
       </c>
       <c r="F25">
-        <v>1.020831254944273</v>
+        <v>1.045460325329268</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.046935215653634</v>
+        <v>1.035639902137671</v>
       </c>
       <c r="J25">
-        <v>1.017723019326884</v>
+        <v>1.033621985784326</v>
       </c>
       <c r="K25">
-        <v>1.029655098257645</v>
+        <v>1.039857926197521</v>
       </c>
       <c r="L25">
-        <v>1.013396774070353</v>
+        <v>1.031111705210238</v>
       </c>
       <c r="M25">
-        <v>1.033114575521932</v>
+        <v>1.048482801266039</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>

--- a/Code/Results/Cases/Case_5_97/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_5_97/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.029291292965256</v>
+        <v>0.999353893997168</v>
       </c>
       <c r="D2">
-        <v>1.037799921630124</v>
+        <v>1.022088537160006</v>
       </c>
       <c r="E2">
-        <v>1.029145161006346</v>
+        <v>1.005891417248849</v>
       </c>
       <c r="F2">
-        <v>1.046644144546457</v>
+        <v>1.026375304229483</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.035904970832552</v>
+        <v>1.048823755926696</v>
       </c>
       <c r="J2">
-        <v>1.034438881527789</v>
+        <v>1.02155394717147</v>
       </c>
       <c r="K2">
-        <v>1.040589773744273</v>
+        <v>1.033248487096384</v>
       </c>
       <c r="L2">
-        <v>1.03195992276475</v>
+        <v>1.017269280950394</v>
       </c>
       <c r="M2">
-        <v>1.049409003504707</v>
+        <v>1.03747902268614</v>
       </c>
       <c r="N2">
-        <v>1.005712725503983</v>
+        <v>1.005712725503999</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,37 +459,37 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.030242965046321</v>
+        <v>1.003862633475443</v>
       </c>
       <c r="D3">
-        <v>1.038519694917004</v>
+        <v>1.02545186410388</v>
       </c>
       <c r="E3">
-        <v>1.029953080002305</v>
+        <v>1.00948578329766</v>
       </c>
       <c r="F3">
-        <v>1.047504342387772</v>
+        <v>1.030289376727144</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036093844866152</v>
+        <v>1.050125441105284</v>
       </c>
       <c r="J3">
-        <v>1.035031512372653</v>
+        <v>1.024248550214892</v>
       </c>
       <c r="K3">
-        <v>1.041119667576619</v>
+        <v>1.035769120145103</v>
       </c>
       <c r="L3">
-        <v>1.032575926150954</v>
+        <v>1.019998713600573</v>
       </c>
       <c r="M3">
-        <v>1.050080759443252</v>
+        <v>1.040548830092036</v>
       </c>
       <c r="N3">
         <v>1.005712725503983</v>
@@ -500,37 +500,37 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.030859121072944</v>
+        <v>1.00672050307408</v>
       </c>
       <c r="D4">
-        <v>1.038985409171182</v>
+        <v>1.027584488479378</v>
       </c>
       <c r="E4">
-        <v>1.030476558593249</v>
+        <v>1.011770219314374</v>
       </c>
       <c r="F4">
-        <v>1.04806123570434</v>
+        <v>1.032773123188378</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036214393903319</v>
+        <v>1.050936614031376</v>
       </c>
       <c r="J4">
-        <v>1.035414743641325</v>
+        <v>1.025953846110557</v>
       </c>
       <c r="K4">
-        <v>1.041461847445733</v>
+        <v>1.037361012864806</v>
       </c>
       <c r="L4">
-        <v>1.032974572230354</v>
+        <v>1.021728633783323</v>
       </c>
       <c r="M4">
-        <v>1.050515076613365</v>
+        <v>1.042491463584146</v>
       </c>
       <c r="N4">
         <v>1.005712725503983</v>
@@ -541,37 +541,37 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.031118238422998</v>
+        <v>1.007908186279694</v>
       </c>
       <c r="D5">
-        <v>1.039181187475559</v>
+        <v>1.028470898474812</v>
       </c>
       <c r="E5">
-        <v>1.03069679544592</v>
+        <v>1.012721022285712</v>
       </c>
       <c r="F5">
-        <v>1.048295421041034</v>
+        <v>1.033805945931913</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036264673372987</v>
+        <v>1.051270335469819</v>
       </c>
       <c r="J5">
-        <v>1.035575795480897</v>
+        <v>1.026661858886265</v>
       </c>
       <c r="K5">
-        <v>1.041605531911813</v>
+        <v>1.038021131752283</v>
       </c>
       <c r="L5">
-        <v>1.033142174117875</v>
+        <v>1.022447490133965</v>
       </c>
       <c r="M5">
-        <v>1.050697577546321</v>
+        <v>1.043297976304014</v>
       </c>
       <c r="N5">
         <v>1.005712725503983</v>
@@ -582,37 +582,37 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.03116175034369</v>
+        <v>1.008106810391915</v>
       </c>
       <c r="D6">
-        <v>1.039214059004586</v>
+        <v>1.028619144428875</v>
       </c>
       <c r="E6">
-        <v>1.030733783903807</v>
+        <v>1.01288011410368</v>
       </c>
       <c r="F6">
-        <v>1.048334745697068</v>
+        <v>1.033978706535744</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036273092078408</v>
+        <v>1.051325945185632</v>
       </c>
       <c r="J6">
-        <v>1.035602833328644</v>
+        <v>1.026780223527321</v>
       </c>
       <c r="K6">
-        <v>1.041629647284611</v>
+        <v>1.038131441387042</v>
       </c>
       <c r="L6">
-        <v>1.033170315830864</v>
+        <v>1.022567704055796</v>
       </c>
       <c r="M6">
-        <v>1.050728215174883</v>
+        <v>1.043432805402569</v>
       </c>
       <c r="N6">
         <v>1.005712725503983</v>
@@ -623,37 +623,37 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.030862583077466</v>
+        <v>1.006736426398746</v>
       </c>
       <c r="D7">
-        <v>1.038988025203619</v>
+        <v>1.027596372196609</v>
       </c>
       <c r="E7">
-        <v>1.030479500756524</v>
+        <v>1.011782961186197</v>
       </c>
       <c r="F7">
-        <v>1.048064364637397</v>
+        <v>1.032786967917293</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036215067310116</v>
+        <v>1.050941101705835</v>
       </c>
       <c r="J7">
-        <v>1.035416895855358</v>
+        <v>1.025963341204634</v>
       </c>
       <c r="K7">
-        <v>1.041463768025947</v>
+        <v>1.037369868885068</v>
       </c>
       <c r="L7">
-        <v>1.032976811692795</v>
+        <v>1.021738271848819</v>
       </c>
       <c r="M7">
-        <v>1.050517515539342</v>
+        <v>1.042502279821495</v>
       </c>
       <c r="N7">
         <v>1.005712725503983</v>
@@ -664,37 +664,37 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.029612839767908</v>
+        <v>1.000890290424089</v>
       </c>
       <c r="D8">
-        <v>1.038043177137642</v>
+        <v>1.023234423591591</v>
       </c>
       <c r="E8">
-        <v>1.029418055053767</v>
+        <v>1.007114916005631</v>
       </c>
       <c r="F8">
-        <v>1.046934791937154</v>
+        <v>1.027708439443983</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.035969146033461</v>
+        <v>1.049270200236238</v>
       </c>
       <c r="J8">
-        <v>1.034639213093012</v>
+        <v>1.022472698732937</v>
       </c>
       <c r="K8">
-        <v>1.040768997467197</v>
+        <v>1.034108604943394</v>
       </c>
       <c r="L8">
-        <v>1.032168092858606</v>
+        <v>1.018199366075445</v>
       </c>
       <c r="M8">
-        <v>1.049636099057112</v>
+        <v>1.038525720131191</v>
       </c>
       <c r="N8">
         <v>1.005712725503983</v>
@@ -705,37 +705,37 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.027413436026834</v>
+        <v>0.99010849912418</v>
       </c>
       <c r="D9">
-        <v>1.036378089972078</v>
+        <v>1.015198906279587</v>
       </c>
       <c r="E9">
-        <v>1.027553080729906</v>
+        <v>0.9985569242800413</v>
       </c>
       <c r="F9">
-        <v>1.044946611163418</v>
+        <v>1.018367320251081</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035523080256346</v>
+        <v>1.046080442335021</v>
       </c>
       <c r="J9">
-        <v>1.033267038848751</v>
+        <v>1.016015453044042</v>
       </c>
       <c r="K9">
-        <v>1.039539434864779</v>
+        <v>1.02805011251544</v>
       </c>
       <c r="L9">
-        <v>1.030743461919756</v>
+        <v>1.011673457850745</v>
       </c>
       <c r="M9">
-        <v>1.048080277515426</v>
+        <v>1.031169267009108</v>
       </c>
       <c r="N9">
         <v>1.005712725503983</v>
@@ -746,37 +746,37 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.025949107187538</v>
+        <v>0.9825623689203874</v>
       </c>
       <c r="D10">
-        <v>1.035268020416693</v>
+        <v>1.009585245582044</v>
       </c>
       <c r="E10">
-        <v>1.026313494415641</v>
+        <v>0.9926051191929673</v>
       </c>
       <c r="F10">
-        <v>1.043622772483552</v>
+        <v>1.011850399804803</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.035217192025961</v>
+        <v>1.043778202199356</v>
       </c>
       <c r="J10">
-        <v>1.032351105894797</v>
+        <v>1.0114853328881</v>
       </c>
       <c r="K10">
-        <v>1.038716236308036</v>
+        <v>1.023783565574284</v>
       </c>
       <c r="L10">
-        <v>1.029794062519784</v>
+        <v>1.007109186566579</v>
       </c>
       <c r="M10">
-        <v>1.047041355059323</v>
+        <v>1.026008938016855</v>
       </c>
       <c r="N10">
         <v>1.005712725503983</v>
@@ -787,37 +787,37 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.025315507986926</v>
+        <v>0.97920124012482</v>
       </c>
       <c r="D11">
-        <v>1.034787363058548</v>
+        <v>1.00708831822918</v>
       </c>
       <c r="E11">
-        <v>1.025777641146091</v>
+        <v>0.9899638986702215</v>
       </c>
       <c r="F11">
-        <v>1.04304993713103</v>
+        <v>1.008953589267943</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.035082728947823</v>
+        <v>1.042737021396281</v>
       </c>
       <c r="J11">
-        <v>1.031954236082492</v>
+        <v>1.00946562079444</v>
       </c>
       <c r="K11">
-        <v>1.038358967889967</v>
+        <v>1.021877785933546</v>
       </c>
       <c r="L11">
-        <v>1.029383059025344</v>
+        <v>1.005077595894332</v>
       </c>
       <c r="M11">
-        <v>1.046591100658197</v>
+        <v>1.023708606524283</v>
       </c>
       <c r="N11">
         <v>1.005712725503983</v>
@@ -828,37 +828,37 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.025080231705015</v>
+        <v>0.9779379121472302</v>
       </c>
       <c r="D12">
-        <v>1.034608828424744</v>
+        <v>1.006150421819362</v>
       </c>
       <c r="E12">
-        <v>1.025578737278106</v>
+        <v>0.9889726986407393</v>
       </c>
       <c r="F12">
-        <v>1.042837221437511</v>
+        <v>1.007865752712677</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.035032481826055</v>
+        <v>1.042343385649398</v>
       </c>
       <c r="J12">
-        <v>1.031806782113394</v>
+        <v>1.008706244001261</v>
       </c>
       <c r="K12">
-        <v>1.038226140638361</v>
+        <v>1.021160730506215</v>
       </c>
       <c r="L12">
-        <v>1.029230408958728</v>
+        <v>1.004314258284314</v>
       </c>
       <c r="M12">
-        <v>1.046423798131006</v>
+        <v>1.022843793063218</v>
       </c>
       <c r="N12">
         <v>1.005712725503983</v>
@@ -869,37 +869,37 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.025130696054678</v>
+        <v>0.9782095858520282</v>
       </c>
       <c r="D13">
-        <v>1.034647124555699</v>
+        <v>1.006352083737787</v>
       </c>
       <c r="E13">
-        <v>1.025621396662376</v>
+        <v>0.9891857815329613</v>
       </c>
       <c r="F13">
-        <v>1.042882846898679</v>
+        <v>1.008099642405063</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.035043273639479</v>
+        <v>1.042428137895369</v>
       </c>
       <c r="J13">
-        <v>1.031838413233403</v>
+        <v>1.008869554920757</v>
       </c>
       <c r="K13">
-        <v>1.03825463803215</v>
+        <v>1.021314962739472</v>
       </c>
       <c r="L13">
-        <v>1.02926315222446</v>
+        <v>1.004478398140495</v>
       </c>
       <c r="M13">
-        <v>1.046459687695901</v>
+        <v>1.023029775572801</v>
       </c>
       <c r="N13">
         <v>1.005712725503983</v>
@@ -910,37 +910,37 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.025296058529548</v>
+        <v>0.9790971208594066</v>
       </c>
       <c r="D14">
-        <v>1.034772605262605</v>
+        <v>1.007011007031157</v>
       </c>
       <c r="E14">
-        <v>1.025761196910507</v>
+        <v>0.9898821755524646</v>
       </c>
       <c r="F14">
-        <v>1.043032352735582</v>
+        <v>1.008863913181679</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.035078581652787</v>
+        <v>1.042704625441423</v>
       </c>
       <c r="J14">
-        <v>1.031942048278552</v>
+        <v>1.0094030400484</v>
       </c>
       <c r="K14">
-        <v>1.038347990827674</v>
+        <v>1.021818703258975</v>
       </c>
       <c r="L14">
-        <v>1.029370440612838</v>
+        <v>1.005014678449671</v>
       </c>
       <c r="M14">
-        <v>1.046577272555164</v>
+        <v>1.023637335112964</v>
       </c>
       <c r="N14">
         <v>1.005712725503983</v>
@@ -951,37 +951,37 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.025397953197691</v>
+        <v>0.9796419673802368</v>
       </c>
       <c r="D15">
-        <v>1.034849918494801</v>
+        <v>1.007415594779668</v>
       </c>
       <c r="E15">
-        <v>1.02584735050405</v>
+        <v>0.9903098883056148</v>
       </c>
       <c r="F15">
-        <v>1.043124476323743</v>
+        <v>1.009333219962422</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.035100296146547</v>
+        <v>1.042874057453379</v>
       </c>
       <c r="J15">
-        <v>1.032005896130103</v>
+        <v>1.009730509893529</v>
       </c>
       <c r="K15">
-        <v>1.038405492450363</v>
+        <v>1.022127847682093</v>
       </c>
       <c r="L15">
-        <v>1.029436546538351</v>
+        <v>1.005343930766298</v>
       </c>
       <c r="M15">
-        <v>1.04664971281919</v>
+        <v>1.024010284118752</v>
       </c>
       <c r="N15">
         <v>1.005712725503983</v>
@@ -992,37 +992,37 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.025991166944755</v>
+        <v>0.9827833974920481</v>
       </c>
       <c r="D16">
-        <v>1.035299920394223</v>
+        <v>1.009749523585505</v>
       </c>
       <c r="E16">
-        <v>1.0263490762177</v>
+        <v>0.992779016058924</v>
       </c>
       <c r="F16">
-        <v>1.043660798135525</v>
+        <v>1.012041024611987</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.035226073574165</v>
+        <v>1.043846348578611</v>
       </c>
       <c r="J16">
-        <v>1.032377439337842</v>
+        <v>1.011618113474194</v>
       </c>
       <c r="K16">
-        <v>1.03873992989088</v>
+        <v>1.023908783316648</v>
       </c>
       <c r="L16">
-        <v>1.029821341507023</v>
+        <v>1.007242817983095</v>
       </c>
       <c r="M16">
-        <v>1.047071228761348</v>
+        <v>1.02616017605584</v>
       </c>
       <c r="N16">
         <v>1.005712725503983</v>
@@ -1033,37 +1033,37 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.02636339929746</v>
+        <v>0.9847283312208145</v>
       </c>
       <c r="D17">
-        <v>1.035582198383338</v>
+        <v>1.011195486619189</v>
       </c>
       <c r="E17">
-        <v>1.026664036257729</v>
+        <v>0.994310337057023</v>
       </c>
       <c r="F17">
-        <v>1.043997325549994</v>
+        <v>1.013719102425471</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035304432367971</v>
+        <v>1.044444217676073</v>
       </c>
       <c r="J17">
-        <v>1.032610428341025</v>
+        <v>1.01278629655697</v>
       </c>
       <c r="K17">
-        <v>1.038949495394438</v>
+        <v>1.025010025169967</v>
       </c>
       <c r="L17">
-        <v>1.030062738754388</v>
+        <v>1.008418867585612</v>
       </c>
       <c r="M17">
-        <v>1.047335529918548</v>
+        <v>1.027490787279137</v>
       </c>
       <c r="N17">
         <v>1.005712725503983</v>
@@ -1074,37 +1074,37 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.026580560926408</v>
+        <v>0.9858538030586964</v>
       </c>
       <c r="D18">
-        <v>1.035746847238372</v>
+        <v>1.012032541830844</v>
       </c>
       <c r="E18">
-        <v>1.026847833462661</v>
+        <v>0.9951973870624408</v>
       </c>
       <c r="F18">
-        <v>1.044193654364167</v>
+        <v>1.014690706795573</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035349943606837</v>
+        <v>1.044788687783023</v>
       </c>
       <c r="J18">
-        <v>1.032746301273009</v>
+        <v>1.013462098934979</v>
       </c>
       <c r="K18">
-        <v>1.039071652411173</v>
+        <v>1.025646760667934</v>
       </c>
       <c r="L18">
-        <v>1.030203550562808</v>
+        <v>1.009099538020724</v>
       </c>
       <c r="M18">
-        <v>1.047489654203462</v>
+        <v>1.028260587767698</v>
       </c>
       <c r="N18">
         <v>1.005712725503983</v>
@@ -1115,37 +1115,37 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.026654615002632</v>
+        <v>0.9862360606791988</v>
       </c>
       <c r="D19">
-        <v>1.03580298834973</v>
+        <v>1.012316893040923</v>
       </c>
       <c r="E19">
-        <v>1.026910518164935</v>
+        <v>0.995498821067778</v>
       </c>
       <c r="F19">
-        <v>1.044260603829215</v>
+        <v>1.015020796002487</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035365428817244</v>
+        <v>1.04490542817278</v>
       </c>
       <c r="J19">
-        <v>1.032792626058943</v>
+        <v>1.013691596380731</v>
       </c>
       <c r="K19">
-        <v>1.039113291366192</v>
+        <v>1.02586293281033</v>
       </c>
       <c r="L19">
-        <v>1.030251565225936</v>
+        <v>1.009330742365798</v>
       </c>
       <c r="M19">
-        <v>1.047542200100742</v>
+        <v>1.028522011213561</v>
       </c>
       <c r="N19">
         <v>1.005712725503983</v>
@@ -1156,37 +1156,37 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.026323457649319</v>
+        <v>0.9845205921205713</v>
       </c>
       <c r="D20">
-        <v>1.035551912525446</v>
+        <v>1.011041008735794</v>
       </c>
       <c r="E20">
-        <v>1.026630235085878</v>
+        <v>0.9941466798498989</v>
       </c>
       <c r="F20">
-        <v>1.043961215395419</v>
+        <v>1.013539808275284</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035296045284973</v>
+        <v>1.044380513964688</v>
       </c>
       <c r="J20">
-        <v>1.032585433468334</v>
+        <v>1.012661541654876</v>
       </c>
       <c r="K20">
-        <v>1.038927019162561</v>
+        <v>1.024892454401862</v>
       </c>
       <c r="L20">
-        <v>1.030036838188725</v>
+        <v>1.008293239655192</v>
       </c>
       <c r="M20">
-        <v>1.047307176838604</v>
+        <v>1.027348682558448</v>
       </c>
       <c r="N20">
         <v>1.005712725503983</v>
@@ -1197,37 +1197,37 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.025247361444647</v>
+        <v>0.978836180639854</v>
       </c>
       <c r="D21">
-        <v>1.034735654230428</v>
+        <v>1.006817262418933</v>
       </c>
       <c r="E21">
-        <v>1.025720025459954</v>
+        <v>0.9896773888675137</v>
       </c>
       <c r="F21">
-        <v>1.042988325301336</v>
+        <v>1.00863918590949</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.03506819264187</v>
+        <v>1.042623399092372</v>
       </c>
       <c r="J21">
-        <v>1.031911531405764</v>
+        <v>1.009246198606772</v>
       </c>
       <c r="K21">
-        <v>1.03832050411155</v>
+        <v>1.021670620550465</v>
       </c>
       <c r="L21">
-        <v>1.029338846436341</v>
+        <v>1.004857001313779</v>
       </c>
       <c r="M21">
-        <v>1.046542648336026</v>
+        <v>1.023458714120766</v>
       </c>
       <c r="N21">
         <v>1.005712725503983</v>
@@ -1238,37 +1238,37 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.024571186352319</v>
+        <v>0.9751757841180534</v>
       </c>
       <c r="D22">
-        <v>1.03422245776822</v>
+        <v>1.004101037256929</v>
       </c>
       <c r="E22">
-        <v>1.025148527438045</v>
+        <v>0.9868084626363197</v>
       </c>
       <c r="F22">
-        <v>1.042376983522391</v>
+        <v>1.005489200367109</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034923188300981</v>
+        <v>1.041478608619373</v>
       </c>
       <c r="J22">
-        <v>1.03148759811725</v>
+        <v>1.007045570775077</v>
       </c>
       <c r="K22">
-        <v>1.03793845953209</v>
+        <v>1.01959168723765</v>
       </c>
       <c r="L22">
-        <v>1.028900078200185</v>
+        <v>1.002645855592333</v>
       </c>
       <c r="M22">
-        <v>1.046061623981016</v>
+        <v>1.020952693832507</v>
       </c>
       <c r="N22">
         <v>1.005712725503983</v>
@@ -1279,37 +1279,37 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.024929600486484</v>
+        <v>0.9771246970815677</v>
       </c>
       <c r="D23">
-        <v>1.034494510797103</v>
+        <v>1.005546873093017</v>
       </c>
       <c r="E23">
-        <v>1.025451414325973</v>
+        <v>0.9883350978931078</v>
       </c>
       <c r="F23">
-        <v>1.042701033442464</v>
+        <v>1.007165787547369</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.035000222972269</v>
+        <v>1.042089361932961</v>
       </c>
       <c r="J23">
-        <v>1.031712354126014</v>
+        <v>1.00821736606986</v>
       </c>
       <c r="K23">
-        <v>1.038141055022722</v>
+        <v>1.020698956252714</v>
       </c>
       <c r="L23">
-        <v>1.029132668974384</v>
+        <v>1.003822973159608</v>
       </c>
       <c r="M23">
-        <v>1.046316655435953</v>
+        <v>1.022287058719907</v>
       </c>
       <c r="N23">
         <v>1.005712725503983</v>
@@ -1320,37 +1320,37 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.026341505422461</v>
+        <v>0.9846144881558724</v>
       </c>
       <c r="D24">
-        <v>1.035565597398401</v>
+        <v>1.011110830231985</v>
       </c>
       <c r="E24">
-        <v>1.026645508113827</v>
+        <v>0.994220648446006</v>
       </c>
       <c r="F24">
-        <v>1.043977531902436</v>
+        <v>1.013620845761973</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035299835646607</v>
+        <v>1.04440931206708</v>
       </c>
       <c r="J24">
-        <v>1.032596727654617</v>
+        <v>1.012717930234731</v>
       </c>
       <c r="K24">
-        <v>1.038937175448437</v>
+        <v>1.024945596848587</v>
       </c>
       <c r="L24">
-        <v>1.030048541512124</v>
+        <v>1.00835002185588</v>
       </c>
       <c r="M24">
-        <v>1.047319988492837</v>
+        <v>1.027412913069228</v>
       </c>
       <c r="N24">
         <v>1.005712725503983</v>
@@ -1361,37 +1361,37 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.027981696671209</v>
+        <v>0.9929562574664476</v>
       </c>
       <c r="D25">
-        <v>1.036808563171526</v>
+        <v>1.017319829743483</v>
       </c>
       <c r="E25">
-        <v>1.028034569721284</v>
+        <v>1.000811035347707</v>
       </c>
       <c r="F25">
-        <v>1.045460325329268</v>
+        <v>1.020831254944273</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035639902137671</v>
+        <v>1.046935215653634</v>
       </c>
       <c r="J25">
-        <v>1.033621985784326</v>
+        <v>1.017723019326884</v>
       </c>
       <c r="K25">
-        <v>1.039857926197521</v>
+        <v>1.029655098257645</v>
       </c>
       <c r="L25">
-        <v>1.031111705210238</v>
+        <v>1.013396774070352</v>
       </c>
       <c r="M25">
-        <v>1.048482801266039</v>
+        <v>1.033114575521932</v>
       </c>
       <c r="N25">
         <v>1.005712725503983</v>
